--- a/EntityAlsExcelfürSSMS/Shops.xlsx
+++ b/EntityAlsExcelfürSSMS/Shops.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\Semester5\SWK\CaaSV2\EntityAlsExcelfürSSMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC5BFE8-6375-4488-9AD4-4AF4DA0CA9F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A7582E-B43A-48CD-877A-32E6AF0CD5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{399A3FB3-B6E0-42A5-B6A0-3B585466C26B}"/>
+    <workbookView xWindow="-46800" yWindow="2835" windowWidth="18900" windowHeight="11055" xr2:uid="{399A3FB3-B6E0-42A5-B6A0-3B585466C26B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>shop_id</t>
   </si>
@@ -41,21 +33,9 @@
     <t>shop_name</t>
   </si>
   <si>
-    <t>mandant_id</t>
-  </si>
-  <si>
-    <t>shop-1</t>
-  </si>
-  <si>
     <t>LoveRead</t>
   </si>
   <si>
-    <t>mandant-1</t>
-  </si>
-  <si>
-    <t>shop-2</t>
-  </si>
-  <si>
     <t>DrugCinalmandant-2</t>
   </si>
   <si>
@@ -65,9 +45,6 @@
     <t>medicaments</t>
   </si>
   <si>
-    <t>mandant-2</t>
-  </si>
-  <si>
     <t>field_descriptions</t>
   </si>
   <si>
@@ -80,13 +57,22 @@
     <t>addr-sh2</t>
   </si>
   <si>
-    <t>app_key</t>
-  </si>
-  <si>
-    <t>ak-s1</t>
-  </si>
-  <si>
-    <t>ak-s2</t>
+    <t>sh1</t>
+  </si>
+  <si>
+    <t>sh2</t>
+  </si>
+  <si>
+    <t>sh3</t>
+  </si>
+  <si>
+    <t>ScienceBooks</t>
+  </si>
+  <si>
+    <t>Books mostly about science</t>
+  </si>
+  <si>
+    <t>addr-sh3</t>
   </si>
 </sst>
 </file>
@@ -438,20 +424,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{159E5392-FBFB-4AF3-A89F-7503C14DF5C8}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27.140625" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -459,56 +444,52 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
